--- a/results/pvalue_SIDER_rare_target_AUPR.xlsx
+++ b/results/pvalue_SIDER_rare_target_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.115</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.088</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.865</t>
         </is>
       </c>
     </row>
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6.936</t>
+          <t>8.845</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.462</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-2.242</t>
+          <t>-6.204</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-3.16</t>
+          <t>-5.183</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13.941</t>
+          <t>13.964</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12.019</t>
+          <t>12.061</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.634</t>
+          <t>8.824</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.151</t>
+          <t>0.181</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.489</t>
+          <t>12.588</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
